--- a/dnawf/userdata.xlsx
+++ b/dnawf/userdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\homedir\PycharmProjects\dnac-api-demo\dnawf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B39FE-F31D-4700-BB64-F87DEA5E1884}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7F7784-91B3-4BEA-802A-2AC3C977ECCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20775" windowHeight="9930" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1965" windowWidth="20775" windowHeight="9930" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workflows" sheetId="1" r:id="rId1"/>
@@ -1510,7 +1510,7 @@
     <t>Global/Bay Area/San_Francisco-1</t>
   </si>
   <si>
-    <t>Example_31,Example_IPv6</t>
+    <t>Example_16,Example_IPv6</t>
   </si>
 </sst>
 </file>
@@ -5104,7 +5104,7 @@
   <dimension ref="B3:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
